--- a/results/featureextraction.xlsx
+++ b/results/featureextraction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,42 @@
     <t>MLP7D050FB2</t>
   </si>
   <si>
+    <t>MLP7D070FA</t>
+  </si>
+  <si>
+    <t>MLP7D070FC1</t>
+  </si>
+  <si>
+    <t>MLP7D070FC2</t>
+  </si>
+  <si>
+    <t>MLP7D070FD</t>
+  </si>
+  <si>
+    <t>MLP7D070FB1</t>
+  </si>
+  <si>
+    <t>MLP7D070FB2</t>
+  </si>
+  <si>
+    <t>MLP7D0100FA</t>
+  </si>
+  <si>
+    <t>MLP7D0100FC1</t>
+  </si>
+  <si>
+    <t>MLP7D0100FC2</t>
+  </si>
+  <si>
+    <t>MLP7D0100FD</t>
+  </si>
+  <si>
+    <t>MLP7D0100FB1</t>
+  </si>
+  <si>
+    <t>MLP7D0100FB2</t>
+  </si>
+  <si>
     <t>MLP8D030FA</t>
   </si>
   <si>
@@ -125,6 +161,42 @@
   </si>
   <si>
     <t>MLP8D050FB2</t>
+  </si>
+  <si>
+    <t>MLP8D070FA</t>
+  </si>
+  <si>
+    <t>MLP8D070FC1</t>
+  </si>
+  <si>
+    <t>MLP8D070FC2</t>
+  </si>
+  <si>
+    <t>MLP8D070FD</t>
+  </si>
+  <si>
+    <t>MLP8D070FB1</t>
+  </si>
+  <si>
+    <t>MLP8D070FB2</t>
+  </si>
+  <si>
+    <t>MLP8D0100FA</t>
+  </si>
+  <si>
+    <t>MLP8D0100FC1</t>
+  </si>
+  <si>
+    <t>MLP8D0100FC2</t>
+  </si>
+  <si>
+    <t>MLP8D0100FD</t>
+  </si>
+  <si>
+    <t>MLP8D0100FB1</t>
+  </si>
+  <si>
+    <t>MLP8D0100FB2</t>
   </si>
   <si>
     <t>mlp</t>
@@ -506,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -573,25 +645,25 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.806822694360894</v>
+        <v>10.00438495730581</v>
       </c>
       <c r="K2">
-        <v>6.642316262693514</v>
+        <v>10.38203207073011</v>
       </c>
       <c r="L2">
-        <v>4.529231764425013</v>
+        <v>6.229437798360602</v>
       </c>
       <c r="M2">
-        <v>4.808145816958726</v>
+        <v>7.156459310618192</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -602,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -614,25 +686,25 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.9765347210620801</v>
+        <v>1.024213017200579</v>
       </c>
       <c r="K3">
-        <v>0.9945797382199946</v>
+        <v>1.088744493830769</v>
       </c>
       <c r="L3">
-        <v>0.6909591072944891</v>
+        <v>0.7320699560549179</v>
       </c>
       <c r="M3">
-        <v>0.7400462883946674</v>
+        <v>0.7690979236193421</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -643,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -655,25 +727,25 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.38783587012368</v>
+        <v>2.544768190940791</v>
       </c>
       <c r="K4">
-        <v>2.272826937587504</v>
+        <v>2.448388180642767</v>
       </c>
       <c r="L4">
-        <v>1.855427327412968</v>
+        <v>1.987230862870438</v>
       </c>
       <c r="M4">
-        <v>1.816435888062654</v>
+        <v>1.939582945501945</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -684,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -696,7 +768,7 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -705,19 +777,19 @@
         <v>500</v>
       </c>
       <c r="J5">
-        <v>1.053424905759508</v>
+        <v>1.159082154418196</v>
       </c>
       <c r="K5">
-        <v>1.00991750178233</v>
+        <v>1.15848033671324</v>
       </c>
       <c r="L5">
-        <v>0.6680375266727566</v>
+        <v>0.7279445011687906</v>
       </c>
       <c r="M5">
-        <v>0.6733407335909875</v>
+        <v>0.7466168809686057</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -728,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -740,7 +812,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -749,19 +821,19 @@
         <v>10000</v>
       </c>
       <c r="J6">
-        <v>0.5586115717887878</v>
+        <v>0.5641677379608154</v>
       </c>
       <c r="K6">
-        <v>0.7918316125869751</v>
+        <v>0.7866249084472656</v>
       </c>
       <c r="L6">
-        <v>0.3268327116966248</v>
+        <v>0.3388946056365967</v>
       </c>
       <c r="M6">
-        <v>0.4895786345005035</v>
+        <v>0.4874206483364105</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -772,7 +844,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -784,28 +856,28 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="J7">
-        <v>1.328913807868958</v>
+        <v>1.226793766021728</v>
       </c>
       <c r="K7">
-        <v>1.197025656700134</v>
+        <v>1.124013423919678</v>
       </c>
       <c r="L7">
-        <v>0.9754370450973512</v>
+        <v>0.8919517397880554</v>
       </c>
       <c r="M7">
-        <v>0.8744686841964722</v>
+        <v>0.8031153678894043</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -816,7 +888,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -828,25 +900,25 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.887994377805267</v>
+        <v>8.742085295754011</v>
       </c>
       <c r="K8">
-        <v>9.869731813203066</v>
+        <v>7.005193112891305</v>
       </c>
       <c r="L8">
-        <v>6.047038020966431</v>
+        <v>5.508570743702134</v>
       </c>
       <c r="M8">
-        <v>7.053567669359833</v>
+        <v>5.306436106149635</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -857,7 +929,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -869,25 +941,25 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.031974750629558</v>
+        <v>1.073110079746259</v>
       </c>
       <c r="K9">
-        <v>1.045120318108673</v>
+        <v>1.524892736118029</v>
       </c>
       <c r="L9">
-        <v>0.7470197177001958</v>
+        <v>0.760928391182911</v>
       </c>
       <c r="M9">
-        <v>0.7494539170371877</v>
+        <v>0.8332226603483276</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -898,7 +970,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -910,25 +982,25 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.709802020956094</v>
+        <v>2.39563593848303</v>
       </c>
       <c r="K10">
-        <v>2.592831443213211</v>
+        <v>2.39395333352028</v>
       </c>
       <c r="L10">
-        <v>2.200454683114258</v>
+        <v>1.80416292422677</v>
       </c>
       <c r="M10">
-        <v>2.156031239554435</v>
+        <v>1.806866226519419</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -939,7 +1011,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -951,7 +1023,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -960,19 +1032,19 @@
         <v>500</v>
       </c>
       <c r="J11">
-        <v>1.359709211284885</v>
+        <v>1.274157232410373</v>
       </c>
       <c r="K11">
-        <v>1.160333578767926</v>
+        <v>1.144000486287242</v>
       </c>
       <c r="L11">
-        <v>0.8907599215037545</v>
+        <v>0.8368238400344931</v>
       </c>
       <c r="M11">
-        <v>0.7822903859689619</v>
+        <v>0.7557077598964967</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -983,7 +1055,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -995,7 +1067,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1004,19 +1076,19 @@
         <v>10000</v>
       </c>
       <c r="J12">
-        <v>0.5539144277572632</v>
+        <v>0.5582820773124695</v>
       </c>
       <c r="K12">
-        <v>0.7751167416572571</v>
+        <v>0.7796034812927246</v>
       </c>
       <c r="L12">
-        <v>0.3293488919734955</v>
+        <v>0.3302969038486481</v>
       </c>
       <c r="M12">
-        <v>0.4926495552062988</v>
+        <v>0.4906741976737976</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1027,7 +1099,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -1039,28 +1111,28 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="J13">
-        <v>1.509628534317017</v>
+        <v>1.409807443618774</v>
       </c>
       <c r="K13">
-        <v>1.345777988433838</v>
+        <v>1.280019998550415</v>
       </c>
       <c r="L13">
-        <v>1.092472434043884</v>
+        <v>1.020635366439819</v>
       </c>
       <c r="M13">
-        <v>0.9719778895378112</v>
+        <v>0.8993344306945801</v>
       </c>
       <c r="N13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1071,37 +1143,37 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.266380459085286</v>
+        <v>8.762072914433613</v>
       </c>
       <c r="K14">
-        <v>4.179572875339118</v>
+        <v>7.156006714489902</v>
       </c>
       <c r="L14">
-        <v>3.026725945272313</v>
+        <v>5.438984149459307</v>
       </c>
       <c r="M14">
-        <v>3.072167592494359</v>
+        <v>5.243360452543156</v>
       </c>
       <c r="N14" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1112,37 +1184,37 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9124141290599435</v>
+        <v>1.075192081739718</v>
       </c>
       <c r="K15">
-        <v>1.01960835733747</v>
+        <v>1.067863340038893</v>
       </c>
       <c r="L15">
-        <v>0.6251250838332668</v>
+        <v>0.7691299407342849</v>
       </c>
       <c r="M15">
-        <v>0.68097221077632</v>
+        <v>0.7812450732794299</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1153,37 +1225,37 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.251627581892316</v>
+        <v>2.489847703058245</v>
       </c>
       <c r="K16">
-        <v>2.160071427012375</v>
+        <v>2.408389040725606</v>
       </c>
       <c r="L16">
-        <v>1.6951459251027</v>
+        <v>1.895860299762089</v>
       </c>
       <c r="M16">
-        <v>1.63617710280832</v>
+        <v>1.818543136674192</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1194,19 +1266,19 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1215,19 +1287,19 @@
         <v>500</v>
       </c>
       <c r="J17">
-        <v>0.983841070314279</v>
+        <v>1.202933038419213</v>
       </c>
       <c r="K17">
-        <v>0.9030700659263653</v>
+        <v>1.073148959577262</v>
       </c>
       <c r="L17">
-        <v>0.6027227683454737</v>
+        <v>0.7657352502530212</v>
       </c>
       <c r="M17">
-        <v>0.5933853423059607</v>
+        <v>0.7008879307590117</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1238,19 +1310,19 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1259,19 +1331,19 @@
         <v>10000</v>
       </c>
       <c r="J18">
-        <v>0.5586115717887878</v>
+        <v>0.5569562911987305</v>
       </c>
       <c r="K18">
-        <v>0.7918316125869751</v>
+        <v>0.7641125917434692</v>
       </c>
       <c r="L18">
-        <v>0.3268327116966248</v>
+        <v>0.3302320837974548</v>
       </c>
       <c r="M18">
-        <v>0.4895786345005035</v>
+        <v>0.492600679397583</v>
       </c>
       <c r="N18" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1282,40 +1354,40 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="J19">
-        <v>1.328913807868958</v>
+        <v>1.416856050491333</v>
       </c>
       <c r="K19">
-        <v>1.197025656700134</v>
+        <v>1.290968298912048</v>
       </c>
       <c r="L19">
-        <v>0.9754370450973512</v>
+        <v>1.011521100997925</v>
       </c>
       <c r="M19">
-        <v>0.8744686841964722</v>
+        <v>0.9060245752334596</v>
       </c>
       <c r="N19" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1326,37 +1398,37 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.646787813206887</v>
+        <v>12.94084420141916</v>
       </c>
       <c r="K20">
-        <v>4.544633378437865</v>
+        <v>13.01063059834415</v>
       </c>
       <c r="L20">
-        <v>3.454716295976118</v>
+        <v>7.970917459785643</v>
       </c>
       <c r="M20">
-        <v>3.5771459391475</v>
+        <v>9.169138302429399</v>
       </c>
       <c r="N20" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1367,37 +1439,37 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9468838204876603</v>
+        <v>0.9971738669133645</v>
       </c>
       <c r="K21">
-        <v>1.004428920401103</v>
+        <v>0.9692713886289193</v>
       </c>
       <c r="L21">
-        <v>0.6614637154860172</v>
+        <v>0.7037051429335435</v>
       </c>
       <c r="M21">
-        <v>0.708170453712347</v>
+        <v>0.7307312767841569</v>
       </c>
       <c r="N21" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1408,37 +1480,37 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.439976685833491</v>
+        <v>2.33936487971967</v>
       </c>
       <c r="K22">
-        <v>2.253236057347103</v>
+        <v>2.080566549116424</v>
       </c>
       <c r="L22">
-        <v>1.921632437089849</v>
+        <v>1.774700128955684</v>
       </c>
       <c r="M22">
-        <v>1.782286349495255</v>
+        <v>1.61815399085998</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1449,19 +1521,19 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1470,19 +1542,19 @@
         <v>500</v>
       </c>
       <c r="J23">
-        <v>1.141499250676306</v>
+        <v>1.175129163110965</v>
       </c>
       <c r="K23">
-        <v>1.144939214754617</v>
+        <v>1.050160316509077</v>
       </c>
       <c r="L23">
-        <v>0.726865811878577</v>
+        <v>0.7447468981295607</v>
       </c>
       <c r="M23">
-        <v>0.752728683583975</v>
+        <v>0.6944530102657764</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1493,19 +1565,19 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1514,19 +1586,19 @@
         <v>10000</v>
       </c>
       <c r="J24">
-        <v>0.5539144277572632</v>
+        <v>0.5699505805969238</v>
       </c>
       <c r="K24">
-        <v>0.7751167416572571</v>
+        <v>0.7646061182022095</v>
       </c>
       <c r="L24">
-        <v>0.3293488919734955</v>
+        <v>0.341210275888443</v>
       </c>
       <c r="M24">
-        <v>0.4926495552062988</v>
+        <v>0.4953839182853699</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1537,40 +1609,1060 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>40000</v>
+      </c>
+      <c r="J25">
+        <v>1.345978498458862</v>
+      </c>
+      <c r="K25">
+        <v>1.161882996559143</v>
+      </c>
+      <c r="L25">
+        <v>0.9561001062393188</v>
+      </c>
+      <c r="M25">
+        <v>0.8256415128707886</v>
+      </c>
+      <c r="N25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="D25">
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
         <v>8</v>
       </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4.076357498729775</v>
+      </c>
+      <c r="K26">
+        <v>4.020282028847351</v>
+      </c>
+      <c r="L26">
+        <v>2.859452403658219</v>
+      </c>
+      <c r="M26">
+        <v>2.94637327588741</v>
+      </c>
+      <c r="N26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.9155739817374503</v>
+      </c>
+      <c r="K27">
+        <v>0.9761511657434759</v>
+      </c>
+      <c r="L27">
+        <v>0.6350351691539158</v>
+      </c>
+      <c r="M27">
+        <v>0.711501340255003</v>
+      </c>
+      <c r="N27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2.237444441309334</v>
+      </c>
+      <c r="K28">
+        <v>2.172132039603001</v>
+      </c>
+      <c r="L28">
+        <v>1.683241308867986</v>
+      </c>
+      <c r="M28">
+        <v>1.621275420525324</v>
+      </c>
+      <c r="N28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>500</v>
+      </c>
+      <c r="J29">
+        <v>1.062405375416964</v>
+      </c>
+      <c r="K29">
+        <v>0.9881543907887969</v>
+      </c>
+      <c r="L29">
+        <v>0.6596075763026465</v>
+      </c>
+      <c r="M29">
+        <v>0.6597517434385272</v>
+      </c>
+      <c r="N29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>10000</v>
+      </c>
+      <c r="J30">
+        <v>0.5641677379608154</v>
+      </c>
+      <c r="K30">
+        <v>0.7866249084472656</v>
+      </c>
+      <c r="L30">
+        <v>0.3388946056365967</v>
+      </c>
+      <c r="M30">
+        <v>0.4874206483364105</v>
+      </c>
+      <c r="N30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>40000</v>
+      </c>
+      <c r="J31">
+        <v>1.226793766021728</v>
+      </c>
+      <c r="K31">
+        <v>1.124013423919678</v>
+      </c>
+      <c r="L31">
+        <v>0.8919517397880554</v>
+      </c>
+      <c r="M31">
+        <v>0.8031153678894043</v>
+      </c>
+      <c r="N31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
         <v>50</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>5.338728458127044</v>
+      </c>
+      <c r="K32">
+        <v>4.849818498222812</v>
+      </c>
+      <c r="L32">
+        <v>3.612886101434982</v>
+      </c>
+      <c r="M32">
+        <v>3.706538223720009</v>
+      </c>
+      <c r="N32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.9241121725086832</v>
+      </c>
+      <c r="K33">
+        <v>1.022384170889355</v>
+      </c>
+      <c r="L33">
+        <v>0.6391465526727822</v>
+      </c>
+      <c r="M33">
+        <v>0.7169104026314912</v>
+      </c>
+      <c r="N33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2.214805897512409</v>
+      </c>
+      <c r="K34">
+        <v>2.114792820896836</v>
+      </c>
+      <c r="L34">
+        <v>1.675128446453048</v>
+      </c>
+      <c r="M34">
+        <v>1.593907146675113</v>
+      </c>
+      <c r="N34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>500</v>
+      </c>
+      <c r="J35">
+        <v>1.088334976566296</v>
+      </c>
+      <c r="K35">
+        <v>1.040653311078247</v>
+      </c>
+      <c r="L35">
+        <v>0.6857405132689588</v>
+      </c>
+      <c r="M35">
+        <v>0.6834561486871692</v>
+      </c>
+      <c r="N35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>10000</v>
+      </c>
+      <c r="J36">
+        <v>0.5582820773124695</v>
+      </c>
+      <c r="K36">
+        <v>0.7796034812927246</v>
+      </c>
+      <c r="L36">
+        <v>0.3302969038486481</v>
+      </c>
+      <c r="M36">
+        <v>0.4906741976737976</v>
+      </c>
+      <c r="N36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>40000</v>
+      </c>
+      <c r="J37">
+        <v>1.409807443618774</v>
+      </c>
+      <c r="K37">
+        <v>1.280019998550415</v>
+      </c>
+      <c r="L37">
+        <v>1.020635366439819</v>
+      </c>
+      <c r="M37">
+        <v>0.8993344306945801</v>
+      </c>
+      <c r="N37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>4.384159545696203</v>
+      </c>
+      <c r="K38">
+        <v>4.162281584407036</v>
+      </c>
+      <c r="L38">
+        <v>3.181135376681208</v>
+      </c>
+      <c r="M38">
+        <v>3.258335834263824</v>
+      </c>
+      <c r="N38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>70</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.9120775868373248</v>
+      </c>
+      <c r="K39">
+        <v>1.011216287969775</v>
+      </c>
+      <c r="L39">
+        <v>0.6296546866210083</v>
+      </c>
+      <c r="M39">
+        <v>0.6927480318783719</v>
+      </c>
+      <c r="N39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2.237837498323704</v>
+      </c>
+      <c r="K40">
+        <v>2.168358710752662</v>
+      </c>
+      <c r="L40">
+        <v>1.65974910282075</v>
+      </c>
+      <c r="M40">
+        <v>1.623729725666519</v>
+      </c>
+      <c r="N40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>70</v>
+      </c>
+      <c r="G41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>500</v>
+      </c>
+      <c r="J41">
+        <v>1.074766930874451</v>
+      </c>
+      <c r="K41">
+        <v>0.9938047168727726</v>
+      </c>
+      <c r="L41">
+        <v>0.6831228271900771</v>
+      </c>
+      <c r="M41">
+        <v>0.6781311475420246</v>
+      </c>
+      <c r="N41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>70</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>10000</v>
+      </c>
+      <c r="J42">
+        <v>0.5569562911987305</v>
+      </c>
+      <c r="K42">
+        <v>0.7641125917434692</v>
+      </c>
+      <c r="L42">
+        <v>0.3302320837974548</v>
+      </c>
+      <c r="M42">
+        <v>0.492600679397583</v>
+      </c>
+      <c r="N42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>70</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>40000</v>
+      </c>
+      <c r="J43">
+        <v>1.416856050491333</v>
+      </c>
+      <c r="K43">
+        <v>1.290968298912048</v>
+      </c>
+      <c r="L43">
+        <v>1.011521100997925</v>
+      </c>
+      <c r="M43">
+        <v>0.9060245752334596</v>
+      </c>
+      <c r="N43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>4.50628340310844</v>
+      </c>
+      <c r="K44">
+        <v>4.328067808803192</v>
+      </c>
+      <c r="L44">
+        <v>3.212188387619715</v>
+      </c>
+      <c r="M44">
+        <v>3.312440959487002</v>
+      </c>
+      <c r="N44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>30000</v>
-      </c>
-      <c r="J25">
-        <v>1.509628534317017</v>
-      </c>
-      <c r="K25">
-        <v>1.345777988433838</v>
-      </c>
-      <c r="L25">
-        <v>1.092472434043884</v>
-      </c>
-      <c r="M25">
-        <v>0.9719778895378112</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.9610679781078867</v>
+      </c>
+      <c r="K45">
+        <v>0.9746878827125223</v>
+      </c>
+      <c r="L45">
+        <v>0.66444439348795</v>
+      </c>
+      <c r="M45">
+        <v>0.6919813381530229</v>
+      </c>
+      <c r="N45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1">
         <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2.298198852714227</v>
+      </c>
+      <c r="K46">
+        <v>2.188262558105474</v>
+      </c>
+      <c r="L46">
+        <v>1.727794571164431</v>
+      </c>
+      <c r="M46">
+        <v>1.664348337943026</v>
+      </c>
+      <c r="N46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>500</v>
+      </c>
+      <c r="J47">
+        <v>1.111590758040682</v>
+      </c>
+      <c r="K47">
+        <v>0.9981345886485642</v>
+      </c>
+      <c r="L47">
+        <v>0.6881812032075636</v>
+      </c>
+      <c r="M47">
+        <v>0.6637042234937611</v>
+      </c>
+      <c r="N47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>10000</v>
+      </c>
+      <c r="J48">
+        <v>0.5699505805969238</v>
+      </c>
+      <c r="K48">
+        <v>0.7646061182022095</v>
+      </c>
+      <c r="L48">
+        <v>0.341210275888443</v>
+      </c>
+      <c r="M48">
+        <v>0.4953839182853699</v>
+      </c>
+      <c r="N48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>40000</v>
+      </c>
+      <c r="J49">
+        <v>1.345978498458862</v>
+      </c>
+      <c r="K49">
+        <v>1.161882996559143</v>
+      </c>
+      <c r="L49">
+        <v>0.9561001062393188</v>
+      </c>
+      <c r="M49">
+        <v>0.8256415128707886</v>
+      </c>
+      <c r="N49" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/results/featureextraction.xlsx
+++ b/results/featureextraction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,78 @@
   </si>
   <si>
     <t>task</t>
+  </si>
+  <si>
+    <t>MLP6D030FA</t>
+  </si>
+  <si>
+    <t>MLP6D030FC1</t>
+  </si>
+  <si>
+    <t>MLP6D030FC2</t>
+  </si>
+  <si>
+    <t>MLP6D030FD</t>
+  </si>
+  <si>
+    <t>MLP6D030FB1</t>
+  </si>
+  <si>
+    <t>MLP6D030FB2</t>
+  </si>
+  <si>
+    <t>MLP6D050FA</t>
+  </si>
+  <si>
+    <t>MLP6D050FC1</t>
+  </si>
+  <si>
+    <t>MLP6D050FC2</t>
+  </si>
+  <si>
+    <t>MLP6D050FD</t>
+  </si>
+  <si>
+    <t>MLP6D050FB1</t>
+  </si>
+  <si>
+    <t>MLP6D050FB2</t>
+  </si>
+  <si>
+    <t>MLP6D070FA</t>
+  </si>
+  <si>
+    <t>MLP6D070FC1</t>
+  </si>
+  <si>
+    <t>MLP6D070FC2</t>
+  </si>
+  <si>
+    <t>MLP6D070FD</t>
+  </si>
+  <si>
+    <t>MLP6D070FB1</t>
+  </si>
+  <si>
+    <t>MLP6D070FB2</t>
+  </si>
+  <si>
+    <t>MLP6D0100FA</t>
+  </si>
+  <si>
+    <t>MLP6D0100FC1</t>
+  </si>
+  <si>
+    <t>MLP6D0100FC2</t>
+  </si>
+  <si>
+    <t>MLP6D0100FD</t>
+  </si>
+  <si>
+    <t>MLP6D0100FB1</t>
+  </si>
+  <si>
+    <t>MLP6D0100FB2</t>
   </si>
   <si>
     <t>MLP7D030FA</t>
@@ -578,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,10 +705,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -645,25 +717,25 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.00438495730581</v>
+        <v>3.230053096731152</v>
       </c>
       <c r="K2">
-        <v>10.38203207073011</v>
+        <v>3.251677879309113</v>
       </c>
       <c r="L2">
-        <v>6.229437798360602</v>
+        <v>2.191071891219901</v>
       </c>
       <c r="M2">
-        <v>7.156459310618192</v>
+        <v>2.295948141760763</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -674,10 +746,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -686,25 +758,25 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.024213017200579</v>
+        <v>0.7357715381433263</v>
       </c>
       <c r="K3">
-        <v>1.088744493830769</v>
+        <v>0.8669946263120136</v>
       </c>
       <c r="L3">
-        <v>0.7320699560549179</v>
+        <v>0.4878437061189052</v>
       </c>
       <c r="M3">
-        <v>0.7690979236193421</v>
+        <v>0.5930858485938422</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -715,10 +787,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -727,25 +799,25 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.544768190940791</v>
+        <v>1.559732172237704</v>
       </c>
       <c r="K4">
-        <v>2.448388180642767</v>
+        <v>1.51578419809028</v>
       </c>
       <c r="L4">
-        <v>1.987230862870438</v>
+        <v>1.137315122409585</v>
       </c>
       <c r="M4">
-        <v>1.939582945501945</v>
+        <v>1.150025090061045</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -756,10 +828,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -768,28 +840,28 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J5">
-        <v>1.159082154418196</v>
+        <v>0.8830471775459149</v>
       </c>
       <c r="K5">
-        <v>1.15848033671324</v>
+        <v>0.9898385168982784</v>
       </c>
       <c r="L5">
-        <v>0.7279445011687906</v>
+        <v>0.5447231603314701</v>
       </c>
       <c r="M5">
-        <v>0.7466168809686057</v>
+        <v>0.6393130000067263</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -800,10 +872,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -812,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -821,19 +893,19 @@
         <v>10000</v>
       </c>
       <c r="J6">
-        <v>0.5641677379608154</v>
+        <v>0.5381652116775513</v>
       </c>
       <c r="K6">
-        <v>0.7866249084472656</v>
+        <v>0.7479766607284546</v>
       </c>
       <c r="L6">
-        <v>0.3388946056365967</v>
+        <v>0.3178208768367767</v>
       </c>
       <c r="M6">
-        <v>0.4874206483364105</v>
+        <v>0.4812776446342468</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -844,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -856,7 +928,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -865,19 +937,19 @@
         <v>40000</v>
       </c>
       <c r="J7">
-        <v>1.226793766021728</v>
+        <v>1.024537563323975</v>
       </c>
       <c r="K7">
-        <v>1.124013423919678</v>
+        <v>1.116070747375489</v>
       </c>
       <c r="L7">
-        <v>0.8919517397880554</v>
+        <v>0.6652389764785767</v>
       </c>
       <c r="M7">
-        <v>0.8031153678894043</v>
+        <v>0.7414291501045227</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -888,10 +960,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -900,25 +972,25 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.742085295754011</v>
+        <v>3.356416513863075</v>
       </c>
       <c r="K8">
-        <v>7.005193112891305</v>
+        <v>3.352946416188861</v>
       </c>
       <c r="L8">
-        <v>5.508570743702134</v>
+        <v>2.247526177251049</v>
       </c>
       <c r="M8">
-        <v>5.306436106149635</v>
+        <v>2.340891752810381</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -929,10 +1001,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -941,25 +1013,25 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.073110079746259</v>
+        <v>0.746921481759611</v>
       </c>
       <c r="K9">
-        <v>1.524892736118029</v>
+        <v>1.183868373303552</v>
       </c>
       <c r="L9">
-        <v>0.760928391182911</v>
+        <v>0.491420573083399</v>
       </c>
       <c r="M9">
-        <v>0.8332226603483276</v>
+        <v>0.6147918977557774</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -970,10 +1042,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -982,25 +1054,25 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.39563593848303</v>
+        <v>1.536848431730197</v>
       </c>
       <c r="K10">
-        <v>2.39395333352028</v>
+        <v>1.510969920948903</v>
       </c>
       <c r="L10">
-        <v>1.80416292422677</v>
+        <v>1.094783689359843</v>
       </c>
       <c r="M10">
-        <v>1.806866226519419</v>
+        <v>1.118179583975027</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1011,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1023,28 +1095,28 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J11">
-        <v>1.274157232410373</v>
+        <v>0.8543376606714996</v>
       </c>
       <c r="K11">
-        <v>1.144000486287242</v>
+        <v>0.9430992053162346</v>
       </c>
       <c r="L11">
-        <v>0.8368238400344931</v>
+        <v>0.5500806632490095</v>
       </c>
       <c r="M11">
-        <v>0.7557077598964967</v>
+        <v>0.6204537620812471</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1055,10 +1127,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1067,7 +1139,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1076,19 +1148,19 @@
         <v>10000</v>
       </c>
       <c r="J12">
-        <v>0.5582820773124695</v>
+        <v>0.5408275723457336</v>
       </c>
       <c r="K12">
-        <v>0.7796034812927246</v>
+        <v>0.7603434920310974</v>
       </c>
       <c r="L12">
-        <v>0.3302969038486481</v>
+        <v>0.3185117542743683</v>
       </c>
       <c r="M12">
-        <v>0.4906741976737976</v>
+        <v>0.4907989501953125</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1099,10 +1171,10 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1111,7 +1183,7 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1120,19 +1192,19 @@
         <v>40000</v>
       </c>
       <c r="J13">
-        <v>1.409807443618774</v>
+        <v>0.9555044174194336</v>
       </c>
       <c r="K13">
-        <v>1.280019998550415</v>
+        <v>1.03927481174469</v>
       </c>
       <c r="L13">
-        <v>1.020635366439819</v>
+        <v>0.6144633889198303</v>
       </c>
       <c r="M13">
-        <v>0.8993344306945801</v>
+        <v>0.7006610631942749</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1143,10 +1215,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1155,25 +1227,25 @@
         <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.762072914433613</v>
+        <v>3.48095955264439</v>
       </c>
       <c r="K14">
-        <v>7.156006714489902</v>
+        <v>3.48770683535788</v>
       </c>
       <c r="L14">
-        <v>5.438984149459307</v>
+        <v>2.383105221291136</v>
       </c>
       <c r="M14">
-        <v>5.243360452543156</v>
+        <v>2.49624872574199</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1184,10 +1256,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1196,25 +1268,25 @@
         <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.075192081739718</v>
+        <v>0.7416674017678698</v>
       </c>
       <c r="K15">
-        <v>1.067863340038893</v>
+        <v>0.9160327630852978</v>
       </c>
       <c r="L15">
-        <v>0.7691299407342849</v>
+        <v>0.4974054410864065</v>
       </c>
       <c r="M15">
-        <v>0.7812450732794299</v>
+        <v>0.6432635509771382</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1225,10 +1297,10 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1237,25 +1309,25 @@
         <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.489847703058245</v>
+        <v>1.693243174746808</v>
       </c>
       <c r="K16">
-        <v>2.408389040725606</v>
+        <v>1.613275557717597</v>
       </c>
       <c r="L16">
-        <v>1.895860299762089</v>
+        <v>1.201532556516386</v>
       </c>
       <c r="M16">
-        <v>1.818543136674192</v>
+        <v>1.193838636338288</v>
       </c>
       <c r="N16" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1266,10 +1338,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1278,28 +1350,28 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J17">
-        <v>1.202933038419213</v>
+        <v>0.8950830849704493</v>
       </c>
       <c r="K17">
-        <v>1.073148959577262</v>
+        <v>1.019830553541692</v>
       </c>
       <c r="L17">
-        <v>0.7657352502530212</v>
+        <v>0.5597591552662348</v>
       </c>
       <c r="M17">
-        <v>0.7008879307590117</v>
+        <v>0.6572426164878598</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1310,10 +1382,10 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1322,7 +1394,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1331,19 +1403,19 @@
         <v>10000</v>
       </c>
       <c r="J18">
-        <v>0.5569562911987305</v>
+        <v>0.5368771553039551</v>
       </c>
       <c r="K18">
-        <v>0.7641125917434692</v>
+        <v>0.7703651189804077</v>
       </c>
       <c r="L18">
-        <v>0.3302320837974548</v>
+        <v>0.3148569166660309</v>
       </c>
       <c r="M18">
-        <v>0.492600679397583</v>
+        <v>0.4907381534576416</v>
       </c>
       <c r="N18" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1354,10 +1426,10 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -1366,7 +1438,7 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1375,19 +1447,19 @@
         <v>40000</v>
       </c>
       <c r="J19">
-        <v>1.416856050491333</v>
+        <v>1.00319504737854</v>
       </c>
       <c r="K19">
-        <v>1.290968298912048</v>
+        <v>1.063937664031982</v>
       </c>
       <c r="L19">
-        <v>1.011521100997925</v>
+        <v>0.6619685888290405</v>
       </c>
       <c r="M19">
-        <v>0.9060245752334596</v>
+        <v>0.7322555780410767</v>
       </c>
       <c r="N19" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1398,10 +1470,10 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1410,25 +1482,25 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.94084420141916</v>
+        <v>3.440391036603643</v>
       </c>
       <c r="K20">
-        <v>13.01063059834415</v>
+        <v>3.455599419134786</v>
       </c>
       <c r="L20">
-        <v>7.970917459785643</v>
+        <v>2.336414165291853</v>
       </c>
       <c r="M20">
-        <v>9.169138302429399</v>
+        <v>2.452256112198325</v>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1439,10 +1511,10 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -1451,25 +1523,25 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9971738669133645</v>
+        <v>0.7616293540105548</v>
       </c>
       <c r="K21">
-        <v>0.9692713886289193</v>
+        <v>0.8837479659267456</v>
       </c>
       <c r="L21">
-        <v>0.7037051429335435</v>
+        <v>0.5137474106653229</v>
       </c>
       <c r="M21">
-        <v>0.7307312767841569</v>
+        <v>0.613399646638439</v>
       </c>
       <c r="N21" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1480,10 +1552,10 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1492,25 +1564,25 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.33936487971967</v>
+        <v>1.589482722880817</v>
       </c>
       <c r="K22">
-        <v>2.080566549116424</v>
+        <v>1.578119774148944</v>
       </c>
       <c r="L22">
-        <v>1.774700128955684</v>
+        <v>1.108816312687882</v>
       </c>
       <c r="M22">
-        <v>1.61815399085998</v>
+        <v>1.151578385099606</v>
       </c>
       <c r="N22" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1521,10 +1593,10 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1533,28 +1605,28 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J23">
-        <v>1.175129163110965</v>
+        <v>0.9337954085797128</v>
       </c>
       <c r="K23">
-        <v>1.050160316509077</v>
+        <v>0.9928053957486102</v>
       </c>
       <c r="L23">
-        <v>0.7447468981295607</v>
+        <v>0.5864904769213417</v>
       </c>
       <c r="M23">
-        <v>0.6944530102657764</v>
+        <v>0.6506859929604474</v>
       </c>
       <c r="N23" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1565,10 +1637,10 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1577,7 +1649,7 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1586,19 +1658,19 @@
         <v>10000</v>
       </c>
       <c r="J24">
-        <v>0.5699505805969238</v>
+        <v>0.5315696001052856</v>
       </c>
       <c r="K24">
-        <v>0.7646061182022095</v>
+        <v>0.7807241082191467</v>
       </c>
       <c r="L24">
-        <v>0.341210275888443</v>
+        <v>0.3137877583503723</v>
       </c>
       <c r="M24">
-        <v>0.4953839182853699</v>
+        <v>0.5005717277526855</v>
       </c>
       <c r="N24" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1609,10 +1681,10 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -1621,7 +1693,7 @@
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1630,19 +1702,19 @@
         <v>40000</v>
       </c>
       <c r="J25">
-        <v>1.345978498458862</v>
+        <v>1.034445405006409</v>
       </c>
       <c r="K25">
-        <v>1.161882996559143</v>
+        <v>1.090039730072022</v>
       </c>
       <c r="L25">
-        <v>0.9561001062393188</v>
+        <v>0.6942728757858276</v>
       </c>
       <c r="M25">
-        <v>0.8256415128707886</v>
+        <v>0.7572842836380005</v>
       </c>
       <c r="N25" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1653,10 +1725,10 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -1665,25 +1737,25 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>4.076357498729775</v>
+        <v>10.00438495730581</v>
       </c>
       <c r="K26">
-        <v>4.020282028847351</v>
+        <v>10.38203207073011</v>
       </c>
       <c r="L26">
-        <v>2.859452403658219</v>
+        <v>6.229437798360602</v>
       </c>
       <c r="M26">
-        <v>2.94637327588741</v>
+        <v>7.156459310618192</v>
       </c>
       <c r="N26" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1694,10 +1766,10 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1706,25 +1778,25 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.9155739817374503</v>
+        <v>1.024213017200579</v>
       </c>
       <c r="K27">
-        <v>0.9761511657434759</v>
+        <v>1.088744493830769</v>
       </c>
       <c r="L27">
-        <v>0.6350351691539158</v>
+        <v>0.7320699560549179</v>
       </c>
       <c r="M27">
-        <v>0.711501340255003</v>
+        <v>0.7690979236193421</v>
       </c>
       <c r="N27" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1735,10 +1807,10 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -1747,25 +1819,25 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2.237444441309334</v>
+        <v>2.544768190940791</v>
       </c>
       <c r="K28">
-        <v>2.172132039603001</v>
+        <v>2.448388180642767</v>
       </c>
       <c r="L28">
-        <v>1.683241308867986</v>
+        <v>1.987230862870438</v>
       </c>
       <c r="M28">
-        <v>1.621275420525324</v>
+        <v>1.939582945501945</v>
       </c>
       <c r="N28" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1776,10 +1848,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1788,28 +1860,28 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J29">
-        <v>1.062405375416964</v>
+        <v>0.965435685540351</v>
       </c>
       <c r="K29">
-        <v>0.9881543907887969</v>
+        <v>0.9764055954591315</v>
       </c>
       <c r="L29">
-        <v>0.6596075763026465</v>
+        <v>0.6128766002774866</v>
       </c>
       <c r="M29">
-        <v>0.6597517434385272</v>
+        <v>0.638715077926862</v>
       </c>
       <c r="N29" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1820,10 +1892,10 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1832,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1853,7 +1925,7 @@
         <v>0.4874206483364105</v>
       </c>
       <c r="N30" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1864,10 +1936,10 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1876,7 +1948,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1897,7 +1969,7 @@
         <v>0.8031153678894043</v>
       </c>
       <c r="N31" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1908,10 +1980,10 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -1920,25 +1992,25 @@
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>5.338728458127044</v>
+        <v>8.742085295754011</v>
       </c>
       <c r="K32">
-        <v>4.849818498222812</v>
+        <v>7.005193112891305</v>
       </c>
       <c r="L32">
-        <v>3.612886101434982</v>
+        <v>5.508570743702134</v>
       </c>
       <c r="M32">
-        <v>3.706538223720009</v>
+        <v>5.306436106149635</v>
       </c>
       <c r="N32" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1949,10 +2021,10 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -1961,25 +2033,25 @@
         <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.9241121725086832</v>
+        <v>1.073110079746259</v>
       </c>
       <c r="K33">
-        <v>1.022384170889355</v>
+        <v>1.524892736118029</v>
       </c>
       <c r="L33">
-        <v>0.6391465526727822</v>
+        <v>0.760928391182911</v>
       </c>
       <c r="M33">
-        <v>0.7169104026314912</v>
+        <v>0.8332226603483276</v>
       </c>
       <c r="N33" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1990,10 +2062,10 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -2002,25 +2074,25 @@
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2.214805897512409</v>
+        <v>2.39563593848303</v>
       </c>
       <c r="K34">
-        <v>2.114792820896836</v>
+        <v>2.39395333352028</v>
       </c>
       <c r="L34">
-        <v>1.675128446453048</v>
+        <v>1.80416292422677</v>
       </c>
       <c r="M34">
-        <v>1.593907146675113</v>
+        <v>1.806866226519419</v>
       </c>
       <c r="N34" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2031,10 +2103,10 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -2043,28 +2115,28 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J35">
-        <v>1.088334976566296</v>
+        <v>1.142426225620212</v>
       </c>
       <c r="K35">
-        <v>1.040653311078247</v>
+        <v>1.237043036318914</v>
       </c>
       <c r="L35">
-        <v>0.6857405132689588</v>
+        <v>0.7248164904248915</v>
       </c>
       <c r="M35">
-        <v>0.6834561486871692</v>
+        <v>0.8108524494146273</v>
       </c>
       <c r="N35" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2075,10 +2147,10 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -2087,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2108,7 +2180,7 @@
         <v>0.4906741976737976</v>
       </c>
       <c r="N36" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2119,10 +2191,10 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -2131,7 +2203,7 @@
         <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2152,7 +2224,7 @@
         <v>0.8993344306945801</v>
       </c>
       <c r="N37" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2163,10 +2235,10 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -2175,25 +2247,25 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>4.384159545696203</v>
+        <v>8.762072914433613</v>
       </c>
       <c r="K38">
-        <v>4.162281584407036</v>
+        <v>7.156006714489902</v>
       </c>
       <c r="L38">
-        <v>3.181135376681208</v>
+        <v>5.438984149459307</v>
       </c>
       <c r="M38">
-        <v>3.258335834263824</v>
+        <v>5.243360452543156</v>
       </c>
       <c r="N38" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2204,10 +2276,10 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -2216,25 +2288,25 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.9120775868373248</v>
+        <v>1.075192081739718</v>
       </c>
       <c r="K39">
-        <v>1.011216287969775</v>
+        <v>1.067863340038893</v>
       </c>
       <c r="L39">
-        <v>0.6296546866210083</v>
+        <v>0.7691299407342849</v>
       </c>
       <c r="M39">
-        <v>0.6927480318783719</v>
+        <v>0.7812450732794299</v>
       </c>
       <c r="N39" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2245,10 +2317,10 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2257,25 +2329,25 @@
         <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2.237837498323704</v>
+        <v>2.489847703058245</v>
       </c>
       <c r="K40">
-        <v>2.168358710752662</v>
+        <v>2.408389040725606</v>
       </c>
       <c r="L40">
-        <v>1.65974910282075</v>
+        <v>1.895860299762089</v>
       </c>
       <c r="M40">
-        <v>1.623729725666519</v>
+        <v>1.818543136674192</v>
       </c>
       <c r="N40" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2286,10 +2358,10 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -2298,28 +2370,28 @@
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J41">
-        <v>1.074766930874451</v>
+        <v>1.116747984929049</v>
       </c>
       <c r="K41">
-        <v>0.9938047168727726</v>
+        <v>1.067527501823764</v>
       </c>
       <c r="L41">
-        <v>0.6831228271900771</v>
+        <v>0.7247743352267628</v>
       </c>
       <c r="M41">
-        <v>0.6781311475420246</v>
+        <v>0.7096758197829593</v>
       </c>
       <c r="N41" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2330,10 +2402,10 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -2342,7 +2414,7 @@
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2363,7 +2435,7 @@
         <v>0.492600679397583</v>
       </c>
       <c r="N42" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2374,10 +2446,10 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>5</v>
@@ -2386,7 +2458,7 @@
         <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2407,7 +2479,7 @@
         <v>0.9060245752334596</v>
       </c>
       <c r="N43" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2418,10 +2490,10 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -2430,25 +2502,25 @@
         <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>4.50628340310844</v>
+        <v>12.94084420141916</v>
       </c>
       <c r="K44">
-        <v>4.328067808803192</v>
+        <v>13.01063059834415</v>
       </c>
       <c r="L44">
-        <v>3.212188387619715</v>
+        <v>7.970917459785643</v>
       </c>
       <c r="M44">
-        <v>3.312440959487002</v>
+        <v>9.169138302429399</v>
       </c>
       <c r="N44" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2459,10 +2531,10 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -2471,25 +2543,25 @@
         <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.9610679781078867</v>
+        <v>0.9971738669133645</v>
       </c>
       <c r="K45">
-        <v>0.9746878827125223</v>
+        <v>0.9692713886289193</v>
       </c>
       <c r="L45">
-        <v>0.66444439348795</v>
+        <v>0.7037051429335435</v>
       </c>
       <c r="M45">
-        <v>0.6919813381530229</v>
+        <v>0.7307312767841569</v>
       </c>
       <c r="N45" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2500,10 +2572,10 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -2512,25 +2584,25 @@
         <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2.298198852714227</v>
+        <v>2.33936487971967</v>
       </c>
       <c r="K46">
-        <v>2.188262558105474</v>
+        <v>2.080566549116424</v>
       </c>
       <c r="L46">
-        <v>1.727794571164431</v>
+        <v>1.774700128955684</v>
       </c>
       <c r="M46">
-        <v>1.664348337943026</v>
+        <v>1.61815399085998</v>
       </c>
       <c r="N46" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2541,10 +2613,10 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -2553,28 +2625,28 @@
         <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J47">
-        <v>1.111590758040682</v>
+        <v>1.021268349844489</v>
       </c>
       <c r="K47">
-        <v>0.9981345886485642</v>
+        <v>0.9910671076743854</v>
       </c>
       <c r="L47">
-        <v>0.6881812032075636</v>
+        <v>0.6401432394833253</v>
       </c>
       <c r="M47">
-        <v>0.6637042234937611</v>
+        <v>0.6651971089320146</v>
       </c>
       <c r="N47" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2585,10 +2657,10 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -2597,7 +2669,7 @@
         <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2618,7 +2690,7 @@
         <v>0.4953839182853699</v>
       </c>
       <c r="N48" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2629,10 +2701,10 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -2641,7 +2713,7 @@
         <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2662,7 +2734,1027 @@
         <v>0.8256415128707886</v>
       </c>
       <c r="N49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>4.076357498729775</v>
+      </c>
+      <c r="K50">
+        <v>4.020282028847351</v>
+      </c>
+      <c r="L50">
+        <v>2.859452403658219</v>
+      </c>
+      <c r="M50">
+        <v>2.94637327588741</v>
+      </c>
+      <c r="N50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.9155739817374503</v>
+      </c>
+      <c r="K51">
+        <v>0.9761511657434759</v>
+      </c>
+      <c r="L51">
+        <v>0.6350351691539158</v>
+      </c>
+      <c r="M51">
+        <v>0.711501340255003</v>
+      </c>
+      <c r="N51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2.237444441309334</v>
+      </c>
+      <c r="K52">
+        <v>2.172132039603001</v>
+      </c>
+      <c r="L52">
+        <v>1.683241308867986</v>
+      </c>
+      <c r="M52">
+        <v>1.621275420525324</v>
+      </c>
+      <c r="N52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1000</v>
+      </c>
+      <c r="J53">
+        <v>0.9639417952477556</v>
+      </c>
+      <c r="K53">
+        <v>0.9539675969023416</v>
+      </c>
+      <c r="L53">
+        <v>0.6057410330234996</v>
+      </c>
+      <c r="M53">
+        <v>0.6434985639967958</v>
+      </c>
+      <c r="N53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>10000</v>
+      </c>
+      <c r="J54">
+        <v>0.5370506048202515</v>
+      </c>
+      <c r="K54">
+        <v>0.7871872782707214</v>
+      </c>
+      <c r="L54">
+        <v>0.3153324425220489</v>
+      </c>
+      <c r="M54">
+        <v>0.4957959055900574</v>
+      </c>
+      <c r="N54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>40000</v>
+      </c>
+      <c r="J55">
+        <v>1.138650298118591</v>
+      </c>
+      <c r="K55">
+        <v>1.049564361572266</v>
+      </c>
+      <c r="L55">
+        <v>0.8020964860916138</v>
+      </c>
+      <c r="M55">
+        <v>0.7432044744491577</v>
+      </c>
+      <c r="N55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>5.338728458127044</v>
+      </c>
+      <c r="K56">
+        <v>4.849818498222812</v>
+      </c>
+      <c r="L56">
+        <v>3.612886101434982</v>
+      </c>
+      <c r="M56">
+        <v>3.706538223720009</v>
+      </c>
+      <c r="N56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.9241121725086832</v>
+      </c>
+      <c r="K57">
+        <v>1.022384170889355</v>
+      </c>
+      <c r="L57">
+        <v>0.6391465526727822</v>
+      </c>
+      <c r="M57">
+        <v>0.7169104026314912</v>
+      </c>
+      <c r="N57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2.214805897512409</v>
+      </c>
+      <c r="K58">
+        <v>2.114792820896836</v>
+      </c>
+      <c r="L58">
+        <v>1.675128446453048</v>
+      </c>
+      <c r="M58">
+        <v>1.593907146675113</v>
+      </c>
+      <c r="N58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1000</v>
+      </c>
+      <c r="J59">
+        <v>1.011240787012776</v>
+      </c>
+      <c r="K59">
+        <v>0.9780723440856024</v>
+      </c>
+      <c r="L59">
+        <v>0.6466262081700453</v>
+      </c>
+      <c r="M59">
+        <v>0.664192995409754</v>
+      </c>
+      <c r="N59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60" t="s">
+        <v>90</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>10000</v>
+      </c>
+      <c r="J60">
+        <v>0.5446426272392273</v>
+      </c>
+      <c r="K60">
+        <v>0.769622802734375</v>
+      </c>
+      <c r="L60">
+        <v>0.3139661848545074</v>
+      </c>
+      <c r="M60">
+        <v>0.4837273955345154</v>
+      </c>
+      <c r="N60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>40000</v>
+      </c>
+      <c r="J61">
+        <v>1.177988290786743</v>
+      </c>
+      <c r="K61">
+        <v>1.086892485618591</v>
+      </c>
+      <c r="L61">
+        <v>0.8232604265213013</v>
+      </c>
+      <c r="M61">
+        <v>0.7897850871086121</v>
+      </c>
+      <c r="N61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>70</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>4.384159545696203</v>
+      </c>
+      <c r="K62">
+        <v>4.162281584407036</v>
+      </c>
+      <c r="L62">
+        <v>3.181135376681208</v>
+      </c>
+      <c r="M62">
+        <v>3.258335834263824</v>
+      </c>
+      <c r="N62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>70</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.9120775868373248</v>
+      </c>
+      <c r="K63">
+        <v>1.011216287969775</v>
+      </c>
+      <c r="L63">
+        <v>0.6296546866210083</v>
+      </c>
+      <c r="M63">
+        <v>0.6927480318783719</v>
+      </c>
+      <c r="N63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>70</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>2.237837498323704</v>
+      </c>
+      <c r="K64">
+        <v>2.168358710752662</v>
+      </c>
+      <c r="L64">
+        <v>1.65974910282075</v>
+      </c>
+      <c r="M64">
+        <v>1.623729725666519</v>
+      </c>
+      <c r="N64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>70</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1000</v>
+      </c>
+      <c r="J65">
+        <v>0.9199453574106908</v>
+      </c>
+      <c r="K65">
+        <v>0.8647311558958142</v>
+      </c>
+      <c r="L65">
+        <v>0.5790404175955709</v>
+      </c>
+      <c r="M65">
+        <v>0.5886237903005423</v>
+      </c>
+      <c r="N65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>70</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>10000</v>
+      </c>
+      <c r="J66">
+        <v>0.5387784242630005</v>
+      </c>
+      <c r="K66">
+        <v>0.7620759010314941</v>
+      </c>
+      <c r="L66">
+        <v>0.3177195489406586</v>
+      </c>
+      <c r="M66">
+        <v>0.4867942333221436</v>
+      </c>
+      <c r="N66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>70</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>40000</v>
+      </c>
+      <c r="J67">
+        <v>1.151655912399292</v>
+      </c>
+      <c r="K67">
+        <v>1.022020936012268</v>
+      </c>
+      <c r="L67">
+        <v>0.8027512431144714</v>
+      </c>
+      <c r="M67">
+        <v>0.7465139627456665</v>
+      </c>
+      <c r="N67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>4.50628340310844</v>
+      </c>
+      <c r="K68">
+        <v>4.328067808803192</v>
+      </c>
+      <c r="L68">
+        <v>3.212188387619715</v>
+      </c>
+      <c r="M68">
+        <v>3.312440959487002</v>
+      </c>
+      <c r="N68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.9610679781078867</v>
+      </c>
+      <c r="K69">
+        <v>0.9746878827125223</v>
+      </c>
+      <c r="L69">
+        <v>0.66444439348795</v>
+      </c>
+      <c r="M69">
+        <v>0.6919813381530229</v>
+      </c>
+      <c r="N69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2.298198852714227</v>
+      </c>
+      <c r="K70">
+        <v>2.188262558105474</v>
+      </c>
+      <c r="L70">
+        <v>1.727794571164431</v>
+      </c>
+      <c r="M70">
+        <v>1.664348337943026</v>
+      </c>
+      <c r="N70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1000</v>
+      </c>
+      <c r="J71">
+        <v>0.9668715965344626</v>
+      </c>
+      <c r="K71">
+        <v>0.956736612861919</v>
+      </c>
+      <c r="L71">
+        <v>0.6236448102566301</v>
+      </c>
+      <c r="M71">
+        <v>0.6464679939289418</v>
+      </c>
+      <c r="N71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>10000</v>
+      </c>
+      <c r="J72">
+        <v>0.5412641763687134</v>
+      </c>
+      <c r="K72">
+        <v>0.7596434354782104</v>
+      </c>
+      <c r="L72">
+        <v>0.3173394203186035</v>
+      </c>
+      <c r="M72">
+        <v>0.4832877218723297</v>
+      </c>
+      <c r="N72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>40000</v>
+      </c>
+      <c r="J73">
+        <v>1.200245976448059</v>
+      </c>
+      <c r="K73">
+        <v>1.058049917221069</v>
+      </c>
+      <c r="L73">
+        <v>0.8385913968086243</v>
+      </c>
+      <c r="M73">
+        <v>0.7598562240600586</v>
+      </c>
+      <c r="N73" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/results/featureextraction.xlsx
+++ b/results/featureextraction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -269,6 +269,126 @@
   </si>
   <si>
     <t>MLP8D0100FB2</t>
+  </si>
+  <si>
+    <t>MLP9D030FA</t>
+  </si>
+  <si>
+    <t>MLP9D030FC1</t>
+  </si>
+  <si>
+    <t>MLP9D030FC2</t>
+  </si>
+  <si>
+    <t>MLP9D030FD</t>
+  </si>
+  <si>
+    <t>MLP9D030FB1</t>
+  </si>
+  <si>
+    <t>MLP9D050FA</t>
+  </si>
+  <si>
+    <t>MLP9D050FC1</t>
+  </si>
+  <si>
+    <t>MLP9D050FC2</t>
+  </si>
+  <si>
+    <t>MLP9D050FD</t>
+  </si>
+  <si>
+    <t>MLP9D050FB1</t>
+  </si>
+  <si>
+    <t>MLP9D070FA</t>
+  </si>
+  <si>
+    <t>MLP9D070FC1</t>
+  </si>
+  <si>
+    <t>MLP9D070FC2</t>
+  </si>
+  <si>
+    <t>MLP9D070FD</t>
+  </si>
+  <si>
+    <t>MLP9D070FB1</t>
+  </si>
+  <si>
+    <t>MLP9D0100FA</t>
+  </si>
+  <si>
+    <t>MLP9D0100FC1</t>
+  </si>
+  <si>
+    <t>MLP9D0100FC2</t>
+  </si>
+  <si>
+    <t>MLP9D0100FD</t>
+  </si>
+  <si>
+    <t>MLP9D0100FB1</t>
+  </si>
+  <si>
+    <t>MLP10D030FA</t>
+  </si>
+  <si>
+    <t>MLP10D030FC1</t>
+  </si>
+  <si>
+    <t>MLP10D030FC2</t>
+  </si>
+  <si>
+    <t>MLP10D030FD</t>
+  </si>
+  <si>
+    <t>MLP10D030FB1</t>
+  </si>
+  <si>
+    <t>MLP10D050FA</t>
+  </si>
+  <si>
+    <t>MLP10D050FC1</t>
+  </si>
+  <si>
+    <t>MLP10D050FC2</t>
+  </si>
+  <si>
+    <t>MLP10D050FD</t>
+  </si>
+  <si>
+    <t>MLP10D050FB1</t>
+  </si>
+  <si>
+    <t>MLP10D070FA</t>
+  </si>
+  <si>
+    <t>MLP10D070FC1</t>
+  </si>
+  <si>
+    <t>MLP10D070FC2</t>
+  </si>
+  <si>
+    <t>MLP10D070FD</t>
+  </si>
+  <si>
+    <t>MLP10D070FB1</t>
+  </si>
+  <si>
+    <t>MLP10D0100FA</t>
+  </si>
+  <si>
+    <t>MLP10D0100FC1</t>
+  </si>
+  <si>
+    <t>MLP10D0100FC2</t>
+  </si>
+  <si>
+    <t>MLP10D0100FD</t>
+  </si>
+  <si>
+    <t>MLP10D0100FB1</t>
   </si>
   <si>
     <t>mlp</t>
@@ -650,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,19 +825,19 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -735,7 +855,7 @@
         <v>2.295948141760763</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -746,19 +866,19 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -776,7 +896,7 @@
         <v>0.5930858485938422</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -787,19 +907,19 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -817,7 +937,7 @@
         <v>1.150025090061045</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -828,40 +948,40 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J5">
-        <v>0.8830471775459149</v>
+        <v>0.7339783947866635</v>
       </c>
       <c r="K5">
-        <v>0.9898385168982784</v>
+        <v>0.9119288398379822</v>
       </c>
       <c r="L5">
-        <v>0.5447231603314701</v>
+        <v>0.4530261741177004</v>
       </c>
       <c r="M5">
-        <v>0.6393130000067263</v>
+        <v>0.5832622654155669</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -872,19 +992,19 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -905,7 +1025,7 @@
         <v>0.4812776446342468</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -916,19 +1036,19 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -949,7 +1069,7 @@
         <v>0.7414291501045227</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -960,19 +1080,19 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -990,7 +1110,7 @@
         <v>2.340891752810381</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1001,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1031,7 +1151,7 @@
         <v>0.6147918977557774</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1042,19 +1162,19 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1072,7 +1192,7 @@
         <v>1.118179583975027</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1083,40 +1203,40 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J11">
-        <v>0.8543376606714996</v>
+        <v>0.7648802136298518</v>
       </c>
       <c r="K11">
-        <v>0.9430992053162346</v>
+        <v>0.8411496004197645</v>
       </c>
       <c r="L11">
-        <v>0.5500806632490095</v>
+        <v>0.4813028789772299</v>
       </c>
       <c r="M11">
-        <v>0.6204537620812471</v>
+        <v>0.5311781606207406</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1127,19 +1247,19 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1160,7 +1280,7 @@
         <v>0.4907989501953125</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1171,19 +1291,19 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1204,7 +1324,7 @@
         <v>0.7006610631942749</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1215,19 +1335,19 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1245,7 +1365,7 @@
         <v>2.49624872574199</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1256,19 +1376,19 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1286,7 +1406,7 @@
         <v>0.6432635509771382</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1297,19 +1417,19 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1327,7 +1447,7 @@
         <v>1.193838636338288</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1338,40 +1458,40 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>0.8950830849704493</v>
+        <v>0.7651394774986015</v>
       </c>
       <c r="K17">
-        <v>1.019830553541692</v>
+        <v>0.9478946156543092</v>
       </c>
       <c r="L17">
-        <v>0.5597591552662348</v>
+        <v>0.4804673523804537</v>
       </c>
       <c r="M17">
-        <v>0.6572426164878598</v>
+        <v>0.6003834391937174</v>
       </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1382,19 +1502,19 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1415,7 +1535,7 @@
         <v>0.4907381534576416</v>
       </c>
       <c r="N18" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1426,19 +1546,19 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1459,7 +1579,7 @@
         <v>0.7322555780410767</v>
       </c>
       <c r="N19" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1470,19 +1590,19 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1500,7 +1620,7 @@
         <v>2.452256112198325</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1511,19 +1631,19 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1541,7 +1661,7 @@
         <v>0.613399646638439</v>
       </c>
       <c r="N21" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1552,19 +1672,19 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1582,7 +1702,7 @@
         <v>1.151578385099606</v>
       </c>
       <c r="N22" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1593,40 +1713,40 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D23">
         <v>6</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J23">
-        <v>0.9337954085797128</v>
+        <v>0.7301220737294799</v>
       </c>
       <c r="K23">
-        <v>0.9928053957486102</v>
+        <v>0.9241871470888338</v>
       </c>
       <c r="L23">
-        <v>0.5864904769213417</v>
+        <v>0.4553708444081254</v>
       </c>
       <c r="M23">
-        <v>0.6506859929604474</v>
+        <v>0.5961708135046329</v>
       </c>
       <c r="N23" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1637,19 +1757,19 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1670,7 +1790,7 @@
         <v>0.5005717277526855</v>
       </c>
       <c r="N24" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1681,19 +1801,19 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1714,7 +1834,7 @@
         <v>0.7572842836380005</v>
       </c>
       <c r="N25" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1725,19 +1845,19 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1755,7 +1875,7 @@
         <v>7.156459310618192</v>
       </c>
       <c r="N26" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1766,19 +1886,19 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D27">
         <v>7</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1796,7 +1916,7 @@
         <v>0.7690979236193421</v>
       </c>
       <c r="N27" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1807,19 +1927,19 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1837,7 +1957,7 @@
         <v>1.939582945501945</v>
       </c>
       <c r="N28" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1848,40 +1968,40 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J29">
-        <v>0.965435685540351</v>
+        <v>0.7771015633535268</v>
       </c>
       <c r="K29">
-        <v>0.9764055954591315</v>
+        <v>0.9481779620820598</v>
       </c>
       <c r="L29">
-        <v>0.6128766002774866</v>
+        <v>0.4867836415747725</v>
       </c>
       <c r="M29">
-        <v>0.638715077926862</v>
+        <v>0.600033842944284</v>
       </c>
       <c r="N29" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1892,19 +2012,19 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1925,7 +2045,7 @@
         <v>0.4874206483364105</v>
       </c>
       <c r="N30" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1936,19 +2056,19 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1969,7 +2089,7 @@
         <v>0.8031153678894043</v>
       </c>
       <c r="N31" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1980,19 +2100,19 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2010,7 +2130,7 @@
         <v>5.306436106149635</v>
       </c>
       <c r="N32" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2021,19 +2141,19 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D33">
         <v>7</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2051,7 +2171,7 @@
         <v>0.8332226603483276</v>
       </c>
       <c r="N33" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2062,19 +2182,19 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D34">
         <v>7</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2092,7 +2212,7 @@
         <v>1.806866226519419</v>
       </c>
       <c r="N34" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2103,40 +2223,40 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D35">
         <v>7</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J35">
-        <v>1.142426225620212</v>
+        <v>0.7950406955385125</v>
       </c>
       <c r="K35">
-        <v>1.237043036318914</v>
+        <v>1.075063563529575</v>
       </c>
       <c r="L35">
-        <v>0.7248164904248915</v>
+        <v>0.4950275527997577</v>
       </c>
       <c r="M35">
-        <v>0.8108524494146273</v>
+        <v>0.6695464314580741</v>
       </c>
       <c r="N35" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2147,19 +2267,19 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D36">
         <v>7</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2180,7 +2300,7 @@
         <v>0.4906741976737976</v>
       </c>
       <c r="N36" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2191,19 +2311,19 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37">
         <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2224,7 +2344,7 @@
         <v>0.8993344306945801</v>
       </c>
       <c r="N37" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2235,19 +2355,19 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2265,7 +2385,7 @@
         <v>5.243360452543156</v>
       </c>
       <c r="N38" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2276,19 +2396,19 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D39">
         <v>7</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39">
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2306,7 +2426,7 @@
         <v>0.7812450732794299</v>
       </c>
       <c r="N39" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2317,19 +2437,19 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D40">
         <v>7</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40">
         <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2347,7 +2467,7 @@
         <v>1.818543136674192</v>
       </c>
       <c r="N40" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2358,40 +2478,40 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D41">
         <v>7</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J41">
-        <v>1.116747984929049</v>
+        <v>0.7708910533404228</v>
       </c>
       <c r="K41">
-        <v>1.067527501823764</v>
+        <v>0.8953089698973073</v>
       </c>
       <c r="L41">
-        <v>0.7247743352267628</v>
+        <v>0.4818461213191062</v>
       </c>
       <c r="M41">
-        <v>0.7096758197829593</v>
+        <v>0.5857731127859427</v>
       </c>
       <c r="N41" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2402,19 +2522,19 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D42">
         <v>7</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2435,7 +2555,7 @@
         <v>0.492600679397583</v>
       </c>
       <c r="N42" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2446,19 +2566,19 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D43">
         <v>7</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2479,7 +2599,7 @@
         <v>0.9060245752334596</v>
       </c>
       <c r="N43" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2490,19 +2610,19 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D44">
         <v>7</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2520,7 +2640,7 @@
         <v>9.169138302429399</v>
       </c>
       <c r="N44" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2531,19 +2651,19 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D45">
         <v>7</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2561,7 +2681,7 @@
         <v>0.7307312767841569</v>
       </c>
       <c r="N45" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2572,19 +2692,19 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D46">
         <v>7</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46">
         <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2602,7 +2722,7 @@
         <v>1.61815399085998</v>
       </c>
       <c r="N46" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2613,40 +2733,40 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D47">
         <v>7</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47">
         <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J47">
-        <v>1.021268349844489</v>
+        <v>0.8317163103093662</v>
       </c>
       <c r="K47">
-        <v>0.9910671076743854</v>
+        <v>0.9407579889740066</v>
       </c>
       <c r="L47">
-        <v>0.6401432394833253</v>
+        <v>0.522350068996444</v>
       </c>
       <c r="M47">
-        <v>0.6651971089320146</v>
+        <v>0.6099151343854045</v>
       </c>
       <c r="N47" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2657,19 +2777,19 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2690,7 +2810,7 @@
         <v>0.4953839182853699</v>
       </c>
       <c r="N48" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2701,19 +2821,19 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D49">
         <v>7</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49">
         <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2734,7 +2854,7 @@
         <v>0.8256415128707886</v>
       </c>
       <c r="N49" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2745,19 +2865,19 @@
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D50">
         <v>8</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50">
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2775,7 +2895,7 @@
         <v>2.94637327588741</v>
       </c>
       <c r="N50" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2786,19 +2906,19 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D51">
         <v>8</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51">
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2816,7 +2936,7 @@
         <v>0.711501340255003</v>
       </c>
       <c r="N51" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2827,19 +2947,19 @@
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D52">
         <v>8</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52">
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2857,7 +2977,7 @@
         <v>1.621275420525324</v>
       </c>
       <c r="N52" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2868,40 +2988,40 @@
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D53">
         <v>8</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53">
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J53">
-        <v>0.9639417952477556</v>
+        <v>0.8163424063904786</v>
       </c>
       <c r="K53">
-        <v>0.9539675969023416</v>
+        <v>0.9332558862118555</v>
       </c>
       <c r="L53">
-        <v>0.6057410330234996</v>
+        <v>0.5209837515411763</v>
       </c>
       <c r="M53">
-        <v>0.6434985639967958</v>
+        <v>0.61409012291259</v>
       </c>
       <c r="N53" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2912,19 +3032,19 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2945,7 +3065,7 @@
         <v>0.4957959055900574</v>
       </c>
       <c r="N54" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2956,19 +3076,19 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D55">
         <v>8</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2989,7 +3109,7 @@
         <v>0.7432044744491577</v>
       </c>
       <c r="N55" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3000,19 +3120,19 @@
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D56">
         <v>8</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56">
         <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3030,7 +3150,7 @@
         <v>3.706538223720009</v>
       </c>
       <c r="N56" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3041,19 +3161,19 @@
         <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57">
         <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3071,7 +3191,7 @@
         <v>0.7169104026314912</v>
       </c>
       <c r="N57" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3082,19 +3202,19 @@
         <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D58">
         <v>8</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58">
         <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3112,7 +3232,7 @@
         <v>1.593907146675113</v>
       </c>
       <c r="N58" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3123,40 +3243,40 @@
         <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D59">
         <v>8</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59">
         <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J59">
-        <v>1.011240787012776</v>
+        <v>0.785422451775075</v>
       </c>
       <c r="K59">
-        <v>0.9780723440856024</v>
+        <v>0.9043472223544657</v>
       </c>
       <c r="L59">
-        <v>0.6466262081700453</v>
+        <v>0.5031182818641662</v>
       </c>
       <c r="M59">
-        <v>0.664192995409754</v>
+        <v>0.5980813218637303</v>
       </c>
       <c r="N59" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3167,19 +3287,19 @@
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D60">
         <v>8</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60">
         <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3200,7 +3320,7 @@
         <v>0.4837273955345154</v>
       </c>
       <c r="N60" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3211,19 +3331,19 @@
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D61">
         <v>8</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61">
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3244,7 +3364,7 @@
         <v>0.7897850871086121</v>
       </c>
       <c r="N61" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3255,19 +3375,19 @@
         <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D62">
         <v>8</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62">
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3285,7 +3405,7 @@
         <v>3.258335834263824</v>
       </c>
       <c r="N62" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3296,19 +3416,19 @@
         <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D63">
         <v>8</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63">
         <v>70</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3326,7 +3446,7 @@
         <v>0.6927480318783719</v>
       </c>
       <c r="N63" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3337,19 +3457,19 @@
         <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D64">
         <v>8</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64">
         <v>70</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3367,7 +3487,7 @@
         <v>1.623729725666519</v>
       </c>
       <c r="N64" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3378,40 +3498,40 @@
         <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D65">
         <v>8</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65">
         <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J65">
-        <v>0.9199453574106908</v>
+        <v>0.7472083674554216</v>
       </c>
       <c r="K65">
-        <v>0.8647311558958142</v>
+        <v>0.8905564698118719</v>
       </c>
       <c r="L65">
-        <v>0.5790404175955709</v>
+        <v>0.4589708588293438</v>
       </c>
       <c r="M65">
-        <v>0.5886237903005423</v>
+        <v>0.5776821671751605</v>
       </c>
       <c r="N65" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3422,19 +3542,19 @@
         <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D66">
         <v>8</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66">
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3455,7 +3575,7 @@
         <v>0.4867942333221436</v>
       </c>
       <c r="N66" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3466,19 +3586,19 @@
         <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67">
         <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3499,7 +3619,7 @@
         <v>0.7465139627456665</v>
       </c>
       <c r="N67" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3510,19 +3630,19 @@
         <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D68">
         <v>8</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68">
         <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3540,7 +3660,7 @@
         <v>3.312440959487002</v>
       </c>
       <c r="N68" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3551,19 +3671,19 @@
         <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D69">
         <v>8</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69">
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3581,7 +3701,7 @@
         <v>0.6919813381530229</v>
       </c>
       <c r="N69" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3592,19 +3712,19 @@
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D70">
         <v>8</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70">
         <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3622,7 +3742,7 @@
         <v>1.664348337943026</v>
       </c>
       <c r="N70" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3633,40 +3753,40 @@
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D71">
         <v>8</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71">
         <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J71">
-        <v>0.9668715965344626</v>
+        <v>0.8027732370746149</v>
       </c>
       <c r="K71">
-        <v>0.956736612861919</v>
+        <v>0.8897303208447325</v>
       </c>
       <c r="L71">
-        <v>0.6236448102566301</v>
+        <v>0.4997818740693948</v>
       </c>
       <c r="M71">
-        <v>0.6464679939289418</v>
+        <v>0.5748607219642351</v>
       </c>
       <c r="N71" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3677,19 +3797,19 @@
         <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D72">
         <v>8</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72">
         <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3710,7 +3830,7 @@
         <v>0.4832877218723297</v>
       </c>
       <c r="N72" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3721,19 +3841,19 @@
         <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D73">
         <v>8</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73">
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3754,7 +3874,1695 @@
         <v>0.7598562240600586</v>
       </c>
       <c r="N73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>126</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>3.184280716614786</v>
+      </c>
+      <c r="K74">
+        <v>3.06728326548281</v>
+      </c>
+      <c r="L74">
+        <v>2.207286325737983</v>
+      </c>
+      <c r="M74">
+        <v>2.282887075553385</v>
+      </c>
+      <c r="N74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.5582373455048442</v>
+      </c>
+      <c r="K75">
+        <v>0.8228681732139289</v>
+      </c>
+      <c r="L75">
+        <v>0.354735446008178</v>
+      </c>
+      <c r="M75">
+        <v>0.553864015151407</v>
+      </c>
+      <c r="N75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.8967645232519562</v>
+      </c>
+      <c r="K76">
+        <v>0.9457716915386033</v>
+      </c>
+      <c r="L76">
+        <v>0.5811021895813898</v>
+      </c>
+      <c r="M76">
+        <v>0.6121795508280491</v>
+      </c>
+      <c r="N76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77">
+        <v>9</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>5000</v>
+      </c>
+      <c r="J77">
+        <v>0.493619222676717</v>
+      </c>
+      <c r="K77">
+        <v>0.8342442629250735</v>
+      </c>
+      <c r="L77">
+        <v>0.2887928543102942</v>
+      </c>
+      <c r="M77">
+        <v>0.5236948808376839</v>
+      </c>
+      <c r="N77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>10000</v>
+      </c>
+      <c r="J78">
+        <v>0.4854006171226502</v>
+      </c>
+      <c r="K78">
+        <v>0.7846022248268127</v>
+      </c>
+      <c r="L78">
+        <v>0.2953502833843231</v>
+      </c>
+      <c r="M78">
+        <v>0.5009190440177917</v>
+      </c>
+      <c r="N78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79" t="s">
+        <v>126</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>3.707125600402446</v>
+      </c>
+      <c r="K79">
+        <v>3.609348625483207</v>
+      </c>
+      <c r="L79">
+        <v>2.599654471619879</v>
+      </c>
+      <c r="M79">
+        <v>2.684176234434793</v>
+      </c>
+      <c r="N79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.5526390348489894</v>
+      </c>
+      <c r="K80">
+        <v>0.8279170263118379</v>
+      </c>
+      <c r="L80">
+        <v>0.349141716346656</v>
+      </c>
+      <c r="M80">
+        <v>0.5456439617028083</v>
+      </c>
+      <c r="N80" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.9105567614014595</v>
+      </c>
+      <c r="K81">
+        <v>0.9406926962298602</v>
+      </c>
+      <c r="L81">
+        <v>0.598614180868848</v>
+      </c>
+      <c r="M81">
+        <v>0.605682177255902</v>
+      </c>
+      <c r="N81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>5000</v>
+      </c>
+      <c r="J82">
+        <v>0.5109305834464993</v>
+      </c>
+      <c r="K82">
+        <v>0.8430512884313991</v>
+      </c>
+      <c r="L82">
+        <v>0.3120444816619048</v>
+      </c>
+      <c r="M82">
+        <v>0.519913628980943</v>
+      </c>
+      <c r="N82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
+        <v>130</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>10000</v>
+      </c>
+      <c r="J83">
+        <v>0.4862754344940186</v>
+      </c>
+      <c r="K83">
+        <v>0.795744776725769</v>
+      </c>
+      <c r="L83">
+        <v>0.2954475581645966</v>
+      </c>
+      <c r="M83">
+        <v>0.5159175992012024</v>
+      </c>
+      <c r="N83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>70</v>
+      </c>
+      <c r="G84" t="s">
+        <v>126</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>3.772374232398719</v>
+      </c>
+      <c r="K84">
+        <v>3.739594971727825</v>
+      </c>
+      <c r="L84">
+        <v>2.689505187765755</v>
+      </c>
+      <c r="M84">
+        <v>2.788498186129043</v>
+      </c>
+      <c r="N84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>70</v>
+      </c>
+      <c r="G85" t="s">
+        <v>127</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.5468363026872983</v>
+      </c>
+      <c r="K85">
+        <v>0.8598213458696471</v>
+      </c>
+      <c r="L85">
+        <v>0.3458007590981015</v>
+      </c>
+      <c r="M85">
+        <v>0.5578413785146829</v>
+      </c>
+      <c r="N85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>70</v>
+      </c>
+      <c r="G86" t="s">
+        <v>128</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.8799943556523335</v>
+      </c>
+      <c r="K86">
+        <v>0.9281046049116501</v>
+      </c>
+      <c r="L86">
+        <v>0.5630998715201148</v>
+      </c>
+      <c r="M86">
+        <v>0.5960962954105806</v>
+      </c>
+      <c r="N86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>70</v>
+      </c>
+      <c r="G87" t="s">
+        <v>129</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>5000</v>
+      </c>
+      <c r="J87">
+        <v>0.5236815137950662</v>
+      </c>
+      <c r="K87">
+        <v>0.8281688973889162</v>
+      </c>
+      <c r="L87">
+        <v>0.3052769137558222</v>
+      </c>
+      <c r="M87">
+        <v>0.5161627410720534</v>
+      </c>
+      <c r="N87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>70</v>
+      </c>
+      <c r="G88" t="s">
+        <v>130</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>10000</v>
+      </c>
+      <c r="J88">
+        <v>0.4791284203529358</v>
+      </c>
+      <c r="K88">
+        <v>0.7634564638137817</v>
+      </c>
+      <c r="L88">
+        <v>0.2903087139129639</v>
+      </c>
+      <c r="M88">
+        <v>0.4829417169094086</v>
+      </c>
+      <c r="N88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+      <c r="G89" t="s">
+        <v>126</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>3.76635733537378</v>
+      </c>
+      <c r="K89">
+        <v>3.740462109382637</v>
+      </c>
+      <c r="L89">
+        <v>2.754909858237285</v>
+      </c>
+      <c r="M89">
+        <v>2.848247451201071</v>
+      </c>
+      <c r="N89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+      <c r="G90" t="s">
+        <v>127</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.5506115888542392</v>
+      </c>
+      <c r="K90">
+        <v>0.8596612281568671</v>
+      </c>
+      <c r="L90">
+        <v>0.3487112345615201</v>
+      </c>
+      <c r="M90">
+        <v>0.5611041022811756</v>
+      </c>
+      <c r="N90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>100</v>
+      </c>
+      <c r="G91" t="s">
+        <v>128</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.887069429202386</v>
+      </c>
+      <c r="K91">
+        <v>0.9392185695172177</v>
+      </c>
+      <c r="L91">
+        <v>0.5725317028572576</v>
+      </c>
+      <c r="M91">
+        <v>0.6232290341292861</v>
+      </c>
+      <c r="N91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
+      </c>
+      <c r="G92" t="s">
+        <v>129</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>5000</v>
+      </c>
+      <c r="J92">
+        <v>0.5009108168177057</v>
+      </c>
+      <c r="K92">
+        <v>0.8405457486129345</v>
+      </c>
+      <c r="L92">
+        <v>0.2912718943924462</v>
+      </c>
+      <c r="M92">
+        <v>0.5150889794672704</v>
+      </c>
+      <c r="N92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
+      </c>
+      <c r="G93" t="s">
+        <v>130</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>10000</v>
+      </c>
+      <c r="J93">
+        <v>0.4910709857940674</v>
+      </c>
+      <c r="K93">
+        <v>0.8024412393569946</v>
+      </c>
+      <c r="L93">
+        <v>0.2967947423458099</v>
+      </c>
+      <c r="M93">
+        <v>0.5116219520568848</v>
+      </c>
+      <c r="N93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s">
+        <v>126</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>4.199608082324255</v>
+      </c>
+      <c r="K94">
+        <v>4.09939565955218</v>
+      </c>
+      <c r="L94">
+        <v>3.035977533363655</v>
+      </c>
+      <c r="M94">
+        <v>3.089192696931077</v>
+      </c>
+      <c r="N94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>127</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.560322729226144</v>
+      </c>
+      <c r="K95">
+        <v>0.8197573366505437</v>
+      </c>
+      <c r="L95">
+        <v>0.3599018578021549</v>
+      </c>
+      <c r="M95">
+        <v>0.5546602678733006</v>
+      </c>
+      <c r="N95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>128</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.9049188043393898</v>
+      </c>
+      <c r="K96">
+        <v>0.9379045936708355</v>
+      </c>
+      <c r="L96">
+        <v>0.5716533704707185</v>
+      </c>
+      <c r="M96">
+        <v>0.5862347497488172</v>
+      </c>
+      <c r="N96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s">
+        <v>129</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>5000</v>
+      </c>
+      <c r="J97">
+        <v>0.4749910294511205</v>
+      </c>
+      <c r="K97">
+        <v>0.8664193546928122</v>
+      </c>
+      <c r="L97">
+        <v>0.2792217423229598</v>
+      </c>
+      <c r="M97">
+        <v>0.5390980030684489</v>
+      </c>
+      <c r="N97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>130</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>10000</v>
+      </c>
+      <c r="J98">
+        <v>0.4916608929634094</v>
+      </c>
+      <c r="K98">
+        <v>0.7655237913131714</v>
+      </c>
+      <c r="L98">
+        <v>0.2946067452430725</v>
+      </c>
+      <c r="M98">
+        <v>0.488473117351532</v>
+      </c>
+      <c r="N98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>50</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>4.103233697217791</v>
+      </c>
+      <c r="K99">
+        <v>4.008806033681391</v>
+      </c>
+      <c r="L99">
+        <v>2.903010670451626</v>
+      </c>
+      <c r="M99">
+        <v>2.953778229956044</v>
+      </c>
+      <c r="N99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>50</v>
+      </c>
+      <c r="G100" t="s">
+        <v>127</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.5608863685741178</v>
+      </c>
+      <c r="K100">
+        <v>0.821274150644722</v>
+      </c>
+      <c r="L100">
+        <v>0.3617746803638227</v>
+      </c>
+      <c r="M100">
+        <v>0.5490957950340991</v>
+      </c>
+      <c r="N100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>50</v>
+      </c>
+      <c r="G101" t="s">
+        <v>128</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.9165713509428223</v>
+      </c>
+      <c r="K101">
+        <v>0.9997138851623184</v>
+      </c>
+      <c r="L101">
+        <v>0.5821919194389314</v>
+      </c>
+      <c r="M101">
+        <v>0.6218308079208964</v>
+      </c>
+      <c r="N101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>50</v>
+      </c>
+      <c r="G102" t="s">
+        <v>129</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>5000</v>
+      </c>
+      <c r="J102">
+        <v>0.4656059336115338</v>
+      </c>
+      <c r="K102">
+        <v>0.8379922649667328</v>
+      </c>
+      <c r="L102">
+        <v>0.274239940983987</v>
+      </c>
+      <c r="M102">
+        <v>0.5096397706467002</v>
+      </c>
+      <c r="N102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>50</v>
+      </c>
+      <c r="G103" t="s">
+        <v>130</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>10000</v>
+      </c>
+      <c r="J103">
+        <v>0.4838093817234039</v>
+      </c>
+      <c r="K103">
+        <v>0.7679911255836487</v>
+      </c>
+      <c r="L103">
+        <v>0.2920188903808594</v>
+      </c>
+      <c r="M103">
+        <v>0.4885215759277344</v>
+      </c>
+      <c r="N103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>70</v>
+      </c>
+      <c r="G104" t="s">
+        <v>126</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>4.188331447709003</v>
+      </c>
+      <c r="K104">
+        <v>4.10597406706299</v>
+      </c>
+      <c r="L104">
+        <v>2.935580090372503</v>
+      </c>
+      <c r="M104">
+        <v>2.967019961543019</v>
+      </c>
+      <c r="N104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>70</v>
+      </c>
+      <c r="G105" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0.5697573910631055</v>
+      </c>
+      <c r="K105">
+        <v>0.9608026759866911</v>
+      </c>
+      <c r="L105">
+        <v>0.364260683570509</v>
+      </c>
+      <c r="M105">
+        <v>0.5811764619317522</v>
+      </c>
+      <c r="N105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>70</v>
+      </c>
+      <c r="G106" t="s">
+        <v>128</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0.9698640901372603</v>
+      </c>
+      <c r="K106">
+        <v>1.063318893510254</v>
+      </c>
+      <c r="L106">
+        <v>0.6088690241706901</v>
+      </c>
+      <c r="M106">
+        <v>0.6767982469438569</v>
+      </c>
+      <c r="N106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>70</v>
+      </c>
+      <c r="G107" t="s">
+        <v>129</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>5000</v>
+      </c>
+      <c r="J107">
+        <v>0.4928132297110079</v>
+      </c>
+      <c r="K107">
+        <v>0.938022485863393</v>
+      </c>
+      <c r="L107">
+        <v>0.2949154362003211</v>
+      </c>
+      <c r="M107">
+        <v>0.5590360544139376</v>
+      </c>
+      <c r="N107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>70</v>
+      </c>
+      <c r="G108" t="s">
+        <v>130</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>10000</v>
+      </c>
+      <c r="J108">
+        <v>0.4906975626945496</v>
+      </c>
+      <c r="K108">
+        <v>0.7851766347885132</v>
+      </c>
+      <c r="L108">
+        <v>0.2930484414100647</v>
+      </c>
+      <c r="M108">
+        <v>0.5049054622650146</v>
+      </c>
+      <c r="N108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>100</v>
+      </c>
+      <c r="G109" t="s">
+        <v>126</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>4.246577002981663</v>
+      </c>
+      <c r="K109">
+        <v>4.187068742992071</v>
+      </c>
+      <c r="L109">
+        <v>2.954522886017267</v>
+      </c>
+      <c r="M109">
+        <v>2.994755187024199</v>
+      </c>
+      <c r="N109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>100</v>
+      </c>
+      <c r="G110" t="s">
+        <v>127</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0.5749420788938009</v>
+      </c>
+      <c r="K110">
+        <v>0.8909904137579534</v>
+      </c>
+      <c r="L110">
+        <v>0.3690736498548656</v>
+      </c>
+      <c r="M110">
+        <v>0.6019888044078945</v>
+      </c>
+      <c r="N110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>100</v>
+      </c>
+      <c r="G111" t="s">
+        <v>128</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0.9886911235667416</v>
+      </c>
+      <c r="K111">
+        <v>1.076925389420041</v>
+      </c>
+      <c r="L111">
+        <v>0.6238286326400917</v>
+      </c>
+      <c r="M111">
+        <v>0.6816649644603233</v>
+      </c>
+      <c r="N111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
+      </c>
+      <c r="G112" t="s">
+        <v>129</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>5000</v>
+      </c>
+      <c r="J112">
+        <v>0.4849800822419225</v>
+      </c>
+      <c r="K112">
+        <v>0.9031080514526529</v>
+      </c>
+      <c r="L112">
+        <v>0.2898227051206786</v>
+      </c>
+      <c r="M112">
+        <v>0.5507847195058844</v>
+      </c>
+      <c r="N112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>100</v>
+      </c>
+      <c r="G113" t="s">
+        <v>130</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>10000</v>
+      </c>
+      <c r="J113">
+        <v>0.4821204245090485</v>
+      </c>
+      <c r="K113">
+        <v>0.7891874313354492</v>
+      </c>
+      <c r="L113">
+        <v>0.2877389788627625</v>
+      </c>
+      <c r="M113">
+        <v>0.5087140798568726</v>
+      </c>
+      <c r="N113" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
